--- a/backend/src/public/digital-file-list-template.xlsx
+++ b/backend/src/public/digital-file-list-template.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27813"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jacques.levesque\Documents\Projects\Citizen Services\CITZ-EZ\Transfert Process\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jacques.levesque\git\repository\citz-grs-dats\backend\src\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4E1F50BD-BBE2-4BF3-AB75-E810B1533317}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9545F371-9FD4-4D11-9856-76731570039C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CoverPage" sheetId="3" r:id="rId1"/>
     <sheet name="DIGITAL FILE LIST" sheetId="1" r:id="rId2"/>
-    <sheet name="OBJECTS" sheetId="4" r:id="rId3"/>
+    <sheet name="Technical Metadata v1" sheetId="4" r:id="rId3"/>
     <sheet name="Instructions" sheetId="2" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'DIGITAL FILE LIST'!$A$1:$J$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">OBJECTS!$A$1:$A$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Technical Metadata v1'!$A$1:$A$1</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -299,7 +299,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-1009]d/mmm/yy;@"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -772,43 +772,43 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B6"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="5"/>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="12"/>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -826,25 +826,25 @@
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD6"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="47.28515625" style="9" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" style="9" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" style="9" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" style="9" customWidth="1"/>
-    <col min="5" max="5" width="142.140625" style="9" customWidth="1"/>
-    <col min="6" max="6" width="6.85546875" style="9" customWidth="1"/>
-    <col min="7" max="7" width="10.28515625" style="10" customWidth="1"/>
-    <col min="8" max="8" width="9.7109375" style="10" customWidth="1"/>
-    <col min="9" max="9" width="11.140625" style="9" customWidth="1"/>
-    <col min="10" max="10" width="9.7109375" style="10" customWidth="1"/>
-    <col min="11" max="16384" width="8.7109375" style="9"/>
+    <col min="1" max="1" width="47.33203125" style="9" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" style="9" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" style="9" customWidth="1"/>
+    <col min="4" max="4" width="12.109375" style="9" customWidth="1"/>
+    <col min="5" max="5" width="142.109375" style="9" customWidth="1"/>
+    <col min="6" max="6" width="6.88671875" style="9" customWidth="1"/>
+    <col min="7" max="7" width="10.33203125" style="10" customWidth="1"/>
+    <col min="8" max="8" width="9.6640625" style="10" customWidth="1"/>
+    <col min="9" max="9" width="11.109375" style="9" customWidth="1"/>
+    <col min="10" max="10" width="9.6640625" style="10" customWidth="1"/>
+    <col min="11" max="16384" width="8.6640625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>6</v>
       </c>
@@ -879,37 +879,37 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="I2" s="11"/>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="I3" s="11"/>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="I4" s="11"/>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="I5" s="11"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="I6" s="11"/>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="I7" s="11"/>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="I8" s="11"/>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="I9" s="11"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="I10" s="11"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="I11" s="11"/>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="I12" s="11"/>
     </row>
   </sheetData>
@@ -930,32 +930,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59C9E2EE-6C67-4CAB-9D72-DDF88B7AAF9F}">
   <dimension ref="A1:P37"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD36"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="36.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.42578125" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="9" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="9" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" style="9" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="39.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="25.42578125" style="9" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="68.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.7109375" style="9" customWidth="1"/>
-    <col min="17" max="16384" width="8.7109375" style="9"/>
+    <col min="1" max="1" width="36.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.44140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.88671875" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" style="9" customWidth="1"/>
+    <col min="5" max="5" width="14.44140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" style="9" customWidth="1"/>
+    <col min="7" max="7" width="15.6640625" style="9" customWidth="1"/>
+    <col min="8" max="8" width="13.44140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="39.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25.44140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.88671875" style="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="68.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.88671875" style="9" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.6640625" style="9" customWidth="1"/>
+    <col min="17" max="16384" width="8.6640625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>17</v>
       </c>
@@ -1005,43 +1005,43 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
       <c r="F2" s="11"/>
       <c r="G2" s="11"/>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D4" s="11"/>
       <c r="E4" s="11"/>
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D8" s="14"/>
       <c r="E8" s="14"/>
       <c r="F8" s="14"/>
@@ -1056,7 +1056,7 @@
       <c r="O8" s="15"/>
       <c r="P8" s="15"/>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D9" s="14"/>
       <c r="E9" s="14"/>
       <c r="F9" s="14"/>
@@ -1071,7 +1071,7 @@
       <c r="O9" s="15"/>
       <c r="P9" s="15"/>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D10" s="14"/>
       <c r="E10" s="14"/>
       <c r="F10" s="14"/>
@@ -1086,7 +1086,7 @@
       <c r="O10" s="15"/>
       <c r="P10" s="15"/>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D11" s="14"/>
       <c r="E11" s="14"/>
       <c r="F11" s="14"/>
@@ -1101,7 +1101,7 @@
       <c r="O11" s="15"/>
       <c r="P11" s="15"/>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D12" s="14"/>
       <c r="E12" s="14"/>
       <c r="F12" s="14"/>
@@ -1116,7 +1116,7 @@
       <c r="O12" s="15"/>
       <c r="P12" s="15"/>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D13" s="14"/>
       <c r="E13" s="14"/>
       <c r="F13" s="14"/>
@@ -1131,7 +1131,7 @@
       <c r="O13" s="15"/>
       <c r="P13" s="15"/>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D14" s="14"/>
       <c r="E14" s="14"/>
       <c r="F14" s="14"/>
@@ -1146,7 +1146,7 @@
       <c r="O14" s="15"/>
       <c r="P14" s="15"/>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D15" s="14"/>
       <c r="E15" s="14"/>
       <c r="F15" s="14"/>
@@ -1161,7 +1161,7 @@
       <c r="O15" s="15"/>
       <c r="P15" s="15"/>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D16" s="14"/>
       <c r="E16" s="14"/>
       <c r="F16" s="14"/>
@@ -1176,7 +1176,7 @@
       <c r="O16" s="15"/>
       <c r="P16" s="15"/>
     </row>
-    <row r="17" spans="4:16">
+    <row r="17" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D17" s="14"/>
       <c r="E17" s="14"/>
       <c r="F17" s="14"/>
@@ -1191,7 +1191,7 @@
       <c r="O17" s="15"/>
       <c r="P17" s="15"/>
     </row>
-    <row r="18" spans="4:16">
+    <row r="18" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D18" s="14"/>
       <c r="E18" s="14"/>
       <c r="F18" s="14"/>
@@ -1206,7 +1206,7 @@
       <c r="O18" s="15"/>
       <c r="P18" s="15"/>
     </row>
-    <row r="19" spans="4:16">
+    <row r="19" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D19" s="14"/>
       <c r="E19" s="14"/>
       <c r="F19" s="14"/>
@@ -1221,7 +1221,7 @@
       <c r="O19" s="15"/>
       <c r="P19" s="15"/>
     </row>
-    <row r="20" spans="4:16">
+    <row r="20" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D20" s="14"/>
       <c r="E20" s="14"/>
       <c r="F20" s="14"/>
@@ -1236,7 +1236,7 @@
       <c r="O20" s="15"/>
       <c r="P20" s="15"/>
     </row>
-    <row r="21" spans="4:16">
+    <row r="21" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D21" s="14"/>
       <c r="E21" s="14"/>
       <c r="F21" s="14"/>
@@ -1251,7 +1251,7 @@
       <c r="O21" s="15"/>
       <c r="P21" s="15"/>
     </row>
-    <row r="22" spans="4:16">
+    <row r="22" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D22" s="14"/>
       <c r="E22" s="14"/>
       <c r="F22" s="14"/>
@@ -1266,7 +1266,7 @@
       <c r="O22" s="15"/>
       <c r="P22" s="15"/>
     </row>
-    <row r="23" spans="4:16">
+    <row r="23" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D23" s="14"/>
       <c r="E23" s="14"/>
       <c r="F23" s="14"/>
@@ -1281,7 +1281,7 @@
       <c r="O23" s="15"/>
       <c r="P23" s="15"/>
     </row>
-    <row r="24" spans="4:16">
+    <row r="24" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D24" s="14"/>
       <c r="E24" s="14"/>
       <c r="F24" s="14"/>
@@ -1296,7 +1296,7 @@
       <c r="O24" s="15"/>
       <c r="P24" s="15"/>
     </row>
-    <row r="25" spans="4:16">
+    <row r="25" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D25" s="14"/>
       <c r="E25" s="14"/>
       <c r="F25" s="14"/>
@@ -1311,7 +1311,7 @@
       <c r="O25" s="15"/>
       <c r="P25" s="15"/>
     </row>
-    <row r="26" spans="4:16">
+    <row r="26" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D26" s="14"/>
       <c r="E26" s="14"/>
       <c r="F26" s="14"/>
@@ -1326,7 +1326,7 @@
       <c r="O26" s="15"/>
       <c r="P26" s="15"/>
     </row>
-    <row r="27" spans="4:16">
+    <row r="27" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D27" s="14"/>
       <c r="E27" s="14"/>
       <c r="F27" s="14"/>
@@ -1341,7 +1341,7 @@
       <c r="O27" s="15"/>
       <c r="P27" s="15"/>
     </row>
-    <row r="28" spans="4:16">
+    <row r="28" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D28" s="14"/>
       <c r="E28" s="14"/>
       <c r="F28" s="14"/>
@@ -1356,7 +1356,7 @@
       <c r="O28" s="15"/>
       <c r="P28" s="15"/>
     </row>
-    <row r="29" spans="4:16">
+    <row r="29" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D29" s="14"/>
       <c r="E29" s="14"/>
       <c r="F29" s="14"/>
@@ -1371,7 +1371,7 @@
       <c r="O29" s="15"/>
       <c r="P29" s="15"/>
     </row>
-    <row r="30" spans="4:16">
+    <row r="30" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D30" s="14"/>
       <c r="E30" s="14"/>
       <c r="F30" s="14"/>
@@ -1386,7 +1386,7 @@
       <c r="O30" s="15"/>
       <c r="P30" s="15"/>
     </row>
-    <row r="31" spans="4:16">
+    <row r="31" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D31" s="14"/>
       <c r="E31" s="14"/>
       <c r="F31" s="14"/>
@@ -1401,7 +1401,7 @@
       <c r="O31" s="15"/>
       <c r="P31" s="15"/>
     </row>
-    <row r="32" spans="4:16">
+    <row r="32" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D32" s="14"/>
       <c r="E32" s="14"/>
       <c r="F32" s="14"/>
@@ -1416,7 +1416,7 @@
       <c r="O32" s="15"/>
       <c r="P32" s="15"/>
     </row>
-    <row r="33" spans="4:16">
+    <row r="33" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D33" s="14"/>
       <c r="E33" s="14"/>
       <c r="F33" s="14"/>
@@ -1431,7 +1431,7 @@
       <c r="O33" s="15"/>
       <c r="P33" s="15"/>
     </row>
-    <row r="34" spans="4:16">
+    <row r="34" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D34" s="14"/>
       <c r="E34" s="14"/>
       <c r="F34" s="14"/>
@@ -1446,7 +1446,7 @@
       <c r="O34" s="15"/>
       <c r="P34" s="15"/>
     </row>
-    <row r="35" spans="4:16">
+    <row r="35" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D35" s="14"/>
       <c r="E35" s="14"/>
       <c r="F35" s="14"/>
@@ -1461,7 +1461,7 @@
       <c r="O35" s="15"/>
       <c r="P35" s="15"/>
     </row>
-    <row r="36" spans="4:16">
+    <row r="36" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D36" s="14"/>
       <c r="E36" s="14"/>
       <c r="F36" s="14"/>
@@ -1476,7 +1476,7 @@
       <c r="O36" s="15"/>
       <c r="P36" s="15"/>
     </row>
-    <row r="37" spans="4:16">
+    <row r="37" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D37" s="14"/>
       <c r="E37" s="14"/>
       <c r="F37" s="14"/>
@@ -1505,17 +1505,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="93.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="87.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="93.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="87.6640625" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>33</v>
       </c>
@@ -1523,7 +1523,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>35</v>
       </c>
@@ -1531,7 +1531,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>37</v>
       </c>
@@ -1539,7 +1539,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>39</v>
       </c>
@@ -1547,7 +1547,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>41</v>
       </c>
@@ -1555,7 +1555,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>43</v>
       </c>

--- a/backend/src/public/digital-file-list-template.xlsx
+++ b/backend/src/public/digital-file-list-template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jacques.levesque\git\repository\citz-grs-dats\backend\src\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9545F371-9FD4-4D11-9856-76731570039C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56AE7FD8-9BB9-4065-9C8D-15F44DDF5569}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,10 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
-  <si>
-    <t>ARS661 Last Revised</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>Ministry</t>
   </si>
@@ -60,9 +57,6 @@
     <t>Application #</t>
   </si>
   <si>
-    <t>Transfer UUID [generated by DATS]</t>
-  </si>
-  <si>
     <t>Folder</t>
   </si>
   <si>
@@ -97,9 +91,6 @@
   </si>
   <si>
     <t>Folder UUID [generated by DATS]</t>
-  </si>
-  <si>
-    <t>CHECKSUM</t>
   </si>
   <si>
     <t>FILE NAME</t>
@@ -290,6 +281,12 @@
       </rPr>
       <t>:  Enter applicable file identifier, if used, or the title for each file in the box. Please spell out acronyms.</t>
     </r>
+  </si>
+  <si>
+    <t>ARS66 Last Revised2</t>
+  </si>
+  <si>
+    <t>Checksum _SHA1</t>
   </si>
 </sst>
 </file>
@@ -769,10 +766,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1695B22A-510C-46AC-92B1-FA9F53B4C193}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -783,35 +780,30 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="B1" s="5"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="12"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -826,7 +818,7 @@
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -846,37 +838,37 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="G1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="H1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="I1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="J1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="K1" s="9" t="s">
         <v>14</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K1" s="9" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
@@ -913,11 +905,6 @@
       <c r="I12" s="11"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J1" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K17">
-      <sortCondition ref="J1"/>
-    </sortState>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="5" orientation="landscape" r:id="rId1"/>
   <headerFooter>
@@ -930,8 +917,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59C9E2EE-6C67-4CAB-9D72-DDF88B7AAF9F}">
   <dimension ref="A1:P37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -957,52 +944,52 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="E1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="F1" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="G1" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="H1" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="I1" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="J1" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="K1" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="L1" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="M1" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="N1" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="O1" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="P1" s="8" t="s">
         <v>29</v>
-      </c>
-      <c r="N1" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="O1" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="P1" s="8" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
@@ -1517,47 +1504,47 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
